--- a/biology/Médecine/Moisès_Broggi/Moisès_Broggi.xlsx
+++ b/biology/Médecine/Moisès_Broggi/Moisès_Broggi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mois%C3%A8s_Broggi</t>
+          <t>Moisès_Broggi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moisès Broggi i Vallès, né le 18 mai 1908 à Barcelone, mort le 31 décembre 2012 à 104 ans, est un médecin et pacifiste de la Catalogne, en Espagne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mois%C3%A8s_Broggi</t>
+          <t>Moisès_Broggi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît en 1908 dans la ville de Barcelone. Il réalise ses études de médecine à l’Université de Barcelone où il obtient le titre de licencié en Médecine sous la direction d’August Pi Sunyer et de Joaquim Trias Pujol. C'est dans cette université qu'il se spécialise en chirurgie.
 Pendant la Guerre Civile Espagnole, il participe en défendant la légalité de la République et s’implique comme chef de chirurgie de l’équipe médicinale dans les Brigades Internationales. Pendant cette période, il implante une des trois avancées médicales initiées pendant la Guerre, les blocs opératoires mobiles et il est à la tête de l’unique service d’urgences d’hôpital en activité. En juillet 1937 il opère le poète anglais Julian Bell, fils de Vanessa Bell et neveu de Virginia Woolf sans parvenir à le sauver. À la fin du conflit, il occupe un poste à l’Hôpital de Vallcarca de Barcelone, et il devient chirurgien à l’Hôpital Clinic. Il sera destitué dans un processus de dépuration du régime franquiste.
